--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -49,6 +49,39 @@
   </si>
   <si>
     <t>PRECIOS</t>
+  </si>
+  <si>
+    <t>Mantenimiento</t>
+  </si>
+  <si>
+    <t>Lona</t>
+  </si>
+  <si>
+    <t>LA BICLA</t>
+  </si>
+  <si>
+    <t>24  julio</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>$500</t>
+  </si>
+  <si>
+    <t>Monto Total</t>
+  </si>
+  <si>
+    <t>Publicidad</t>
+  </si>
+  <si>
+    <t>Compra en Transito</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
@@ -536,8 +569,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="26" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="4" max="26" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -561,32 +594,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5">
-        <f t="shared" ref="G2" si="0">E2*F2</f>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4" si="0">E4*F4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7">
-        <f>SUM(G2:G2)</f>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7">
+        <f>SUM(G4:G4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C5A960-A1A2-48CC-B45C-B96984D459CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C285BFC-9EA7-48E8-9BBA-5A09BC67F636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPRAS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -196,22 +190,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -223,7 +208,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -561,201 +546,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:Z97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="4" max="26" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="3" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="26" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
-        <f t="shared" ref="G4" si="0">E4*F4</f>
-        <v>0</v>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7">
-        <f>SUM(G4:G4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>$</t>
+  </si>
+  <si>
+    <t>ALGO</t>
+  </si>
+  <si>
+    <t>ALEJANDRO CABRERA</t>
+  </si>
+  <si>
+    <t>27  julio</t>
+  </si>
+  <si>
+    <t>$100</t>
   </si>
 </sst>
 </file>
@@ -546,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z97"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
       <selection activeCell="G4" sqref="A4:G4"/>
@@ -554,8 +566,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="26" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="4" max="26" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -625,21 +637,65 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4" t="e">
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>$100</t>
+  </si>
+  <si>
+    <t>Equipo y Mob.</t>
+  </si>
+  <si>
+    <t>28  julio</t>
   </si>
 </sst>
 </file>
@@ -683,20 +689,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="e">
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>28  julio</t>
+  </si>
+  <si>
+    <t>Sillita</t>
+  </si>
+  <si>
+    <t>29  julio</t>
+  </si>
+  <si>
+    <t>8500</t>
   </si>
 </sst>
 </file>
@@ -712,20 +721,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4" t="e">
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>8500</t>
+  </si>
+  <si>
+    <t>Pizarron</t>
+  </si>
+  <si>
+    <t>Alejandro Baca</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>800.0</t>
   </si>
 </sst>
 </file>
@@ -744,20 +759,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4" t="e">
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -118,6 +118,27 @@
   </si>
   <si>
     <t>800.0</t>
+  </si>
+  <si>
+    <t>Inventario Princ.</t>
+  </si>
+  <si>
+    <t>BICI</t>
+  </si>
+  <si>
+    <t>31  julio</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>ALEX</t>
   </si>
 </sst>
 </file>
@@ -127,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +186,92 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +295,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -227,12 +342,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -246,6 +379,48 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -588,7 +763,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
       <selection activeCell="G4" sqref="A4:G4"/>
@@ -621,7 +796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -644,7 +819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -667,7 +842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="28.8" customHeight="true">
       <c r="A4" t="s" s="0">
         <v>13</v>
       </c>
@@ -690,7 +865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="28.8" customHeight="true">
       <c r="A5" t="s" s="0">
         <v>13</v>
       </c>
@@ -713,7 +888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="28.8" customHeight="true">
       <c r="A6" t="s" s="0">
         <v>21</v>
       </c>
@@ -736,7 +911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="28.8" customHeight="true">
       <c r="A7" t="s" s="0">
         <v>21</v>
       </c>
@@ -759,7 +934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="28.8" customHeight="true">
       <c r="A8" t="s" s="0">
         <v>21</v>
       </c>
@@ -782,25 +957,47 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4" t="e">
+    <row r="9" ht="28.8" customHeight="true">
+      <c r="A9" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s" s="14">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s" s="16">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s" s="17">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="18">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -881,7 +1078,6 @@
     <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>ALEX</t>
+  </si>
+  <si>
+    <t>PATINES</t>
+  </si>
+  <si>
+    <t>04  agosto</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>2000.0</t>
   </si>
 </sst>
 </file>
@@ -148,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +200,48 @@
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -365,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -420,6 +477,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,20 +1058,42 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4" t="e">
+    <row r="10" ht="28.8" customHeight="true">
+      <c r="A10" t="s" s="20">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s" s="21">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s" s="23">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s" s="24">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s" s="25">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s" s="26">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C285BFC-9EA7-48E8-9BBA-5A09BC67F636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D85FC8-8FF1-40D6-BC60-323088858FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -44,117 +44,6 @@
   <si>
     <t>PRECIOS</t>
   </si>
-  <si>
-    <t>Mantenimiento</t>
-  </si>
-  <si>
-    <t>Lona</t>
-  </si>
-  <si>
-    <t>LA BICLA</t>
-  </si>
-  <si>
-    <t>24  julio</t>
-  </si>
-  <si>
-    <t>Unidades</t>
-  </si>
-  <si>
-    <t>$500</t>
-  </si>
-  <si>
-    <t>Monto Total</t>
-  </si>
-  <si>
-    <t>Publicidad</t>
-  </si>
-  <si>
-    <t>Compra en Transito</t>
-  </si>
-  <si>
-    <t>Nuevo</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>ALGO</t>
-  </si>
-  <si>
-    <t>ALEJANDRO CABRERA</t>
-  </si>
-  <si>
-    <t>27  julio</t>
-  </si>
-  <si>
-    <t>$100</t>
-  </si>
-  <si>
-    <t>Equipo y Mob.</t>
-  </si>
-  <si>
-    <t>28  julio</t>
-  </si>
-  <si>
-    <t>Sillita</t>
-  </si>
-  <si>
-    <t>29  julio</t>
-  </si>
-  <si>
-    <t>8500</t>
-  </si>
-  <si>
-    <t>Pizarron</t>
-  </si>
-  <si>
-    <t>Alejandro Baca</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>800.0</t>
-  </si>
-  <si>
-    <t>Inventario Princ.</t>
-  </si>
-  <si>
-    <t>BICI</t>
-  </si>
-  <si>
-    <t>31  julio</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>123.0</t>
-  </si>
-  <si>
-    <t>ALEX</t>
-  </si>
-  <si>
-    <t>PATINES</t>
-  </si>
-  <si>
-    <t>04  agosto</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>2000.0</t>
-  </si>
 </sst>
 </file>
 
@@ -163,7 +52,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,134 +90,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,18 +115,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="EEEEEE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -399,35 +152,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
@@ -436,69 +168,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -841,263 +510,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:Z96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="A4:G4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="4" max="26" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="3" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="26" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="28.8" customHeight="true">
-      <c r="A4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" customHeight="true">
-      <c r="A5" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="28.8" customHeight="true">
-      <c r="A6" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" customHeight="true">
-      <c r="A7" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="28.8" customHeight="true">
-      <c r="A8" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" ht="28.8" customHeight="true">
-      <c r="A9" t="s" s="13">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s" s="14">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s" s="16">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s" s="17">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="18">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s" s="19">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="28.8" customHeight="true">
-      <c r="A10" t="s" s="20">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s" s="21">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s" s="22">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s" s="23">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s" s="24">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s" s="25">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s" s="26">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4" t="e">
+    <row r="2" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
+    <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>PRECIOS</t>
+  </si>
+  <si>
+    <t>Inventario Princ.</t>
+  </si>
+  <si>
+    <t>bci</t>
+  </si>
+  <si>
+    <t>ALEJANDRO CABRERA</t>
+  </si>
+  <si>
+    <t>04  agosto</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>1234.0</t>
   </si>
 </sst>
 </file>
@@ -52,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +111,50 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,8 +178,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -152,12 +225,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -168,6 +259,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -510,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z96"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -518,8 +630,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="26" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="4" max="26" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -543,19 +655,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="e">
+    <row r="2" ht="28.8" customHeight="true">
+      <c r="A2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D85FC8-8FF1-40D6-BC60-323088858FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018491B-C0F9-4376-8681-EC0425CF16BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -45,35 +45,36 @@
     <t>PRECIOS</t>
   </si>
   <si>
-    <t>Inventario Princ.</t>
-  </si>
-  <si>
-    <t>bci</t>
-  </si>
-  <si>
-    <t>ALEJANDRO CABRERA</t>
-  </si>
-  <si>
-    <t>04  agosto</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>1234.0</t>
+    <t>Equipo y Mob.</t>
+  </si>
+  <si>
+    <t>Sillitas</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>06  agosto</t>
+  </si>
+  <si>
+    <t>Erick Rodriguez</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>1000.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +113,78 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="12.0"/>
       <color indexed="8"/>
@@ -154,7 +227,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,17 +252,27 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor rgb="EEEEEE"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="EEEEEE"/>
+      <patternFill patternType="none">
+        <fgColor rgb="22B473"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -226,6 +309,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -248,37 +346,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,7 +756,7 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,61 +767,83 @@
   <sheetData>
     <row r="1" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="28.8" customHeight="true">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:7" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="9">
+      <c r="E2" s="8">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9">
+        <v>400</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" customHeight="true">
+      <c r="A3" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s" s="11">
-        <v>12</v>
+      <c r="D3" t="s" s="15">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="F3" t="n" s="20">
+        <v>500.0</v>
+      </c>
+      <c r="G3" t="n" s="21">
+        <v>1000.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+    <row r="4" spans="1:7" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" t="n" s="22">
+        <f>SUM(G2:G2)</f>
+        <v>2000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52627\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\SISTEMA DE CONTROL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018491B-C0F9-4376-8681-EC0425CF16BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A22566B-5F24-4450-9F25-12FF9BAB908B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="COMPRAS" sheetId="1" r:id="rId1"/>
+    <sheet name="COMPRAS EN TRANSITO" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -33,48 +39,71 @@
     <t>UNIDADES</t>
   </si>
   <si>
-    <t>PROVEEDOR</t>
-  </si>
-  <si>
-    <t>FECHA</t>
-  </si>
-  <si>
-    <t>PRECIOS NETOS</t>
-  </si>
-  <si>
-    <t>PRECIOS</t>
-  </si>
-  <si>
-    <t>Equipo y Mob.</t>
-  </si>
-  <si>
-    <t>Sillitas</t>
-  </si>
-  <si>
-    <t>Nuevo</t>
-  </si>
-  <si>
-    <t>06  agosto</t>
-  </si>
-  <si>
-    <t>Erick Rodriguez</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>1000.0</t>
+    <t>FECHA DE REGISTRO</t>
+  </si>
+  <si>
+    <t>CONDICIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACK </t>
+  </si>
+  <si>
+    <t>T.I.G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECIO BASE </t>
+  </si>
+  <si>
+    <t>PRECIO BASE NETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECIO LOCAL </t>
+  </si>
+  <si>
+    <t>PRECIO LOCAL NETO</t>
+  </si>
+  <si>
+    <t>PRECIO ML</t>
+  </si>
+  <si>
+    <t>PRECIO ML NETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMISIÒN ML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA </t>
+  </si>
+  <si>
+    <t>IVA NETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTILIDAD </t>
+  </si>
+  <si>
+    <t>UTILIDAD   NETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSTO        NETO </t>
+  </si>
+  <si>
+    <t>TIPO DE GASTO</t>
+  </si>
+  <si>
+    <t>COMISIÒN ML NETA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="24" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +118,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -115,119 +137,27 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="16"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03DF7B"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -247,32 +183,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF03DF7B"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FF03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF22B473"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="22B473"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -308,120 +254,76 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FF03DF7B"/>
+      <color rgb="FF22B473"/>
+      <color rgb="FFDAEF11"/>
     </mruColors>
   </colors>
   <extLst>
@@ -446,16 +348,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1689548</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1671215</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>489857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{592BA309-9496-434A-8D3E-4BB4A523D40D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F39A1F-A032-4DE5-99DB-C47DABCFB890}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -478,7 +380,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047368" y="26830"/>
-          <a:ext cx="642180" cy="476634"/>
+          <a:ext cx="623847" cy="463027"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -753,189 +655,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="4" max="26" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="21" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="40.7109375" customWidth="1"/>
+    <col min="23" max="26" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11">
+        <f t="shared" ref="I2" si="0">H2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11">
+        <f t="shared" ref="K2" si="1">J2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <f t="shared" ref="L2" si="2">J2+R2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <f t="shared" ref="M2" si="3">L2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="11">
+        <f t="shared" ref="N2" si="4">J2+R2+P2+35</f>
+        <v>40</v>
+      </c>
+      <c r="O2" s="11">
+        <f t="shared" ref="O2" si="5">N2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="11">
+        <f t="shared" ref="P2" si="6">(L2*0.15)+5</f>
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q2" s="11">
+        <f>P2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="11">
+        <f t="shared" ref="R2" si="7">J2*0.16</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="11">
+        <f t="shared" ref="S2" si="8">R2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="11">
+        <f t="shared" ref="T2" si="9">L2-H2-R2</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="11">
+        <f t="shared" ref="U2" si="10">T2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9">
-        <v>400</v>
-      </c>
-      <c r="G2" s="10">
-        <v>2000</v>
-      </c>
+    <row r="3" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15">
+        <f>SUM(I2:I2)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15">
+        <f>SUM(K2:K2)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15">
+        <f>SUM(M2:M2)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15">
+        <f>SUM(O2:O2)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15">
+        <f>SUM(Q2:Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15">
+        <f>SUM(S2:S2)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15">
+        <f>SUM(U2:U2)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="13"/>
     </row>
-    <row r="3" ht="28.8" customHeight="true">
-      <c r="A3" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="14">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="15">
-        <v>9</v>
-      </c>
-      <c r="E3" t="n" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="F3" t="n" s="20">
-        <v>500.0</v>
-      </c>
-      <c r="G3" t="n" s="21">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" t="n" s="22">
-        <f>SUM(G2:G2)</f>
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52627\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\SISTEMA DE CONTROL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A22566B-5F24-4450-9F25-12FF9BAB908B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBB9E66-C28A-494C-A042-813DCF78CC08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="4215" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="COMPRAS EN TRANSITO" sheetId="1" r:id="rId1"/>
+    <sheet name="COMPRAS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -94,6 +96,9 @@
   </si>
   <si>
     <t>COMISIÒN ML NETA</t>
+  </si>
+  <si>
+    <t>PAQUETERIA</t>
   </si>
 </sst>
 </file>
@@ -655,21 +660,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="21" width="20.7109375" customWidth="1"/>
-    <col min="22" max="22" width="40.7109375" customWidth="1"/>
-    <col min="23" max="26" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="40.73046875" customWidth="1"/>
+    <col min="3" max="21" width="20.73046875" customWidth="1"/>
+    <col min="22" max="22" width="36.796875" customWidth="1"/>
+    <col min="23" max="23" width="22" customWidth="1"/>
+    <col min="24" max="26" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -734,8 +740,11 @@
       <c r="V1" s="17" t="s">
         <v>19</v>
       </c>
+      <c r="W1" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
       <c r="B2" s="16"/>
       <c r="C2" s="9"/>
@@ -794,8 +803,9 @@
         <v>0</v>
       </c>
       <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -839,71 +849,72 @@
         <v>0</v>
       </c>
       <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
     </row>
-    <row r="4" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -99,16 +99,38 @@
   </si>
   <si>
     <t>PAQUETERIA</t>
+  </si>
+  <si>
+    <t>Sillas</t>
+  </si>
+  <si>
+    <t>Sillas mamalonas</t>
+  </si>
+  <si>
+    <t>07  agosto 20</t>
+  </si>
+  <si>
+    <t>Equipo y Mob.</t>
+  </si>
+  <si>
+    <t>Estafeta</t>
+  </si>
+  <si>
+    <t>Escritorio</t>
+  </si>
+  <si>
+    <t>Rojo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +183,80 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +316,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -259,12 +363,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -316,6 +438,42 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -668,11 +826,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="40.73046875" customWidth="1"/>
-    <col min="3" max="21" width="20.73046875" customWidth="1"/>
-    <col min="22" max="22" width="36.796875" customWidth="1"/>
-    <col min="23" max="23" width="22" customWidth="1"/>
-    <col min="24" max="26" width="15.73046875" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="40.73046875" collapsed="true"/>
+    <col min="3" max="21" customWidth="true" width="20.73046875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="36.796875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="24" max="26" customWidth="true" width="15.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -744,115 +902,153 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="8"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11">
-        <f t="shared" ref="I2" si="0">H2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11">
-        <f t="shared" ref="K2" si="1">J2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="11">
-        <f t="shared" ref="L2" si="2">J2+R2</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="11">
-        <f t="shared" ref="M2" si="3">L2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="11">
-        <f t="shared" ref="N2" si="4">J2+R2+P2+35</f>
-        <v>40</v>
-      </c>
-      <c r="O2" s="11">
-        <f t="shared" ref="O2" si="5">N2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="11">
-        <f t="shared" ref="P2" si="6">(L2*0.15)+5</f>
-        <v>5</v>
-      </c>
-      <c r="Q2" s="11">
-        <f>P2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="11">
-        <f t="shared" ref="R2" si="7">J2*0.16</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="11">
-        <f t="shared" ref="S2" si="8">R2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="11">
-        <f t="shared" ref="T2" si="9">L2-H2-R2</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="11">
-        <f t="shared" ref="U2" si="10">T2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+    <row r="2" ht="28.5" customHeight="true">
+      <c r="A2" t="s" s="18">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s" s="20">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n" s="21">
+        <v>600.0</v>
+      </c>
+      <c r="V2" t="s" s="22">
+        <v>25</v>
+      </c>
+      <c r="W2" t="s" s="23">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15">
-        <f>SUM(I2:I2)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15">
-        <f>SUM(K2:K2)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15">
-        <f>SUM(M2:M2)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15">
-        <f>SUM(O2:O2)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15">
-        <f>SUM(Q2:Q2)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15">
-        <f>SUM(S2:S2)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15">
-        <f>SUM(U2:U2)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
+    <row r="3" ht="28.5" customHeight="true">
+      <c r="A3" t="s" s="24">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="25">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n" s="27">
+        <v>600.0</v>
+      </c>
+      <c r="V3" t="s" s="28">
+        <v>25</v>
+      </c>
+      <c r="W3" t="s" s="29">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:23" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A4" s="8"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="n">
+        <f t="shared" ref="I4" si="0">H4*G4</f>
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="n">
+        <f t="shared" ref="K4" si="1">J4*G4</f>
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="11" t="n">
+        <f t="shared" ref="L4" si="2">J4+R4</f>
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="11" t="n">
+        <f t="shared" ref="M4" si="3">L4*G4</f>
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="11" t="n">
+        <f t="shared" ref="N4" si="4">J4+R4+P4+35</f>
+        <v>40.0</v>
+      </c>
+      <c r="O4" s="11" t="n">
+        <f t="shared" ref="O4" si="5">N4*G4</f>
+        <v>0.0</v>
+      </c>
+      <c r="P4" s="11" t="n">
+        <f t="shared" ref="P4" si="6">(L4*0.15)+5</f>
+        <v>5.0</v>
+      </c>
+      <c r="Q4" s="11" t="n">
+        <f>P4*G4</f>
+        <v>0.0</v>
+      </c>
+      <c r="R4" s="11" t="n">
+        <f t="shared" ref="R4" si="7">J4*0.16</f>
+        <v>0.0</v>
+      </c>
+      <c r="S4" s="11" t="n">
+        <f t="shared" ref="S4" si="8">R4*G4</f>
+        <v>0.0</v>
+      </c>
+      <c r="T4" s="11" t="n">
+        <f t="shared" ref="T4" si="9">L4-H4-R4</f>
+        <v>0.0</v>
+      </c>
+      <c r="U4" s="11" t="n">
+        <f t="shared" ref="U4" si="10">T4*G4</f>
+        <v>0.0</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="n">
+        <f>SUM(I4:I4)</f>
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15" t="n">
+        <f>SUM(K4:K4)</f>
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15" t="n">
+        <f>SUM(M4:M4)</f>
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15" t="n">
+        <f>SUM(O4:O4)</f>
+        <v>0.0</v>
+      </c>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15" t="n">
+        <f>SUM(Q4:Q4)</f>
+        <v>0.0</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15" t="n">
+        <f>SUM(S4:S4)</f>
+        <v>0.0</v>
+      </c>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15" t="n">
+        <f>SUM(U4:U4)</f>
+        <v>0.0</v>
+      </c>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+    </row>
     <row r="6" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>Rojo</t>
+  </si>
+  <si>
+    <t>bici</t>
+  </si>
+  <si>
+    <t>chingona</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -130,7 +142,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,8 +267,176 @@
       <color indexed="8"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +506,16 @@
         <fgColor rgb="EEEEEE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -386,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -473,6 +663,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="36" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="14" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="41" fillId="14" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="14" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="43" fillId="14" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="44" fillId="14" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="45" fillId="14" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="46" fillId="14" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,114 +1216,178 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="n">
-        <f t="shared" ref="I4" si="0">H4*G4</f>
+    <row r="4" ht="28.5" customHeight="true">
+      <c r="A4" t="s" s="30">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s" s="31">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s" s="32">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s" s="33">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s" s="34">
+        <v>32</v>
+      </c>
+      <c r="F4" t="n" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="G4" t="n" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n" s="37">
+        <v>10000.0</v>
+      </c>
+      <c r="I4" t="n" s="38">
+        <v>10000.0</v>
+      </c>
+      <c r="J4" t="n" s="39">
+        <v>20000.0</v>
+      </c>
+      <c r="K4" t="n" s="40">
+        <v>20000.0</v>
+      </c>
+      <c r="L4" t="n" s="41">
+        <v>23200.0</v>
+      </c>
+      <c r="M4" t="n" s="42">
+        <v>23200.0</v>
+      </c>
+      <c r="N4" t="n" s="47">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O4" t="n" s="48">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="P4" t="n" s="43">
+        <v>3485.0</v>
+      </c>
+      <c r="Q4" t="n" s="44">
+        <v>3485.0</v>
+      </c>
+      <c r="R4" t="n" s="45">
+        <v>3200.0</v>
+      </c>
+      <c r="S4" t="n" s="46">
+        <v>3200.0</v>
+      </c>
+      <c r="T4" t="n" s="49">
+        <v>10000.0</v>
+      </c>
+      <c r="U4" t="n" s="50">
+        <v>10000.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A5" s="8"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" t="n" s="51">
+        <f>SUM(I2:I4)</f>
+        <v>10000.0</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" t="n" s="52">
+        <f>SUM(K2:K4)</f>
+        <v>20000.0</v>
+      </c>
+      <c r="L5" s="11" t="n">
+        <f t="shared" ref="L5" si="2">J5+R5</f>
         <v>0.0</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11" t="n">
-        <f t="shared" ref="K4" si="1">J4*G4</f>
+      <c r="M5" t="n" s="53">
+        <f>SUM(M2:M4)</f>
+        <v>23200.0</v>
+      </c>
+      <c r="N5" s="11" t="n">
+        <f t="shared" ref="N5" si="4">J5+R5+P5+35</f>
+        <v>40.0</v>
+      </c>
+      <c r="O5" t="n" s="54">
+        <f>SUM(O2:O4)</f>
+        <v>120.03999999999999</v>
+      </c>
+      <c r="P5" s="11" t="n">
+        <f t="shared" ref="P5" si="6">(L5*0.15)+5</f>
+        <v>5.0</v>
+      </c>
+      <c r="Q5" t="n" s="55">
+        <f>SUM(Q2:Q4)</f>
+        <v>3485.0</v>
+      </c>
+      <c r="R5" s="11" t="n">
+        <f t="shared" ref="R5" si="7">J5*0.16</f>
         <v>0.0</v>
       </c>
-      <c r="L4" s="11" t="n">
-        <f t="shared" ref="L4" si="2">J4+R4</f>
+      <c r="S5" t="n" s="56">
+        <f>SUM(S2:S4)</f>
+        <v>3200.0</v>
+      </c>
+      <c r="T5" s="11" t="n">
+        <f t="shared" ref="T5" si="9">L5-H5-R5</f>
         <v>0.0</v>
       </c>
-      <c r="M4" s="11" t="n">
-        <f t="shared" ref="M4" si="3">L4*G4</f>
-        <v>0.0</v>
-      </c>
-      <c r="N4" s="11" t="n">
-        <f t="shared" ref="N4" si="4">J4+R4+P4+35</f>
-        <v>40.0</v>
-      </c>
-      <c r="O4" s="11" t="n">
-        <f t="shared" ref="O4" si="5">N4*G4</f>
-        <v>0.0</v>
-      </c>
-      <c r="P4" s="11" t="n">
-        <f t="shared" ref="P4" si="6">(L4*0.15)+5</f>
-        <v>5.0</v>
-      </c>
-      <c r="Q4" s="11" t="n">
-        <f>P4*G4</f>
-        <v>0.0</v>
-      </c>
-      <c r="R4" s="11" t="n">
-        <f t="shared" ref="R4" si="7">J4*0.16</f>
-        <v>0.0</v>
-      </c>
-      <c r="S4" s="11" t="n">
-        <f t="shared" ref="S4" si="8">R4*G4</f>
-        <v>0.0</v>
-      </c>
-      <c r="T4" s="11" t="n">
-        <f t="shared" ref="T4" si="9">L4-H4-R4</f>
-        <v>0.0</v>
-      </c>
-      <c r="U4" s="11" t="n">
-        <f t="shared" ref="U4" si="10">T4*G4</f>
-        <v>0.0</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
+      <c r="U5" t="n" s="57">
+        <f>SUM(U2:U4)</f>
+        <v>10000.0</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="n">
-        <f>SUM(I4:I4)</f>
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15" t="n">
-        <f>SUM(K4:K4)</f>
-        <v>0.0</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15" t="n">
-        <f>SUM(M4:M4)</f>
-        <v>0.0</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15" t="n">
-        <f>SUM(O4:O4)</f>
-        <v>0.0</v>
-      </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15" t="n">
-        <f>SUM(Q4:Q4)</f>
-        <v>0.0</v>
-      </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15" t="n">
-        <f>SUM(S4:S4)</f>
-        <v>0.0</v>
-      </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15" t="n">
-        <f>SUM(U4:U4)</f>
-        <v>0.0</v>
-      </c>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
+    <row r="6" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15" t="n">
+        <f>SUM(I5:I5)</f>
+        <v>10000.0</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15" t="n">
+        <f>SUM(K5:K5)</f>
+        <v>20000.0</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15" t="n">
+        <f>SUM(M5:M5)</f>
+        <v>23200.0</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15" t="n">
+        <f>SUM(O5:O5)</f>
+        <v>120.03999999999999</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15" t="n">
+        <f>SUM(Q5:Q5)</f>
+        <v>3485.0</v>
+      </c>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15" t="n">
+        <f>SUM(S5:S5)</f>
+        <v>3200.0</v>
+      </c>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15" t="n">
+        <f>SUM(U5:U5)</f>
+        <v>10000.0</v>
+      </c>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
     </row>
-    <row r="6" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -132,6 +132,30 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Escritorio mamalon</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS</t>
+  </si>
+  <si>
+    <t>SillasDOS</t>
+  </si>
+  <si>
+    <t>PA SENTARSE</t>
+  </si>
+  <si>
+    <t>FEDEX</t>
+  </si>
+  <si>
+    <t>MartilloMamador</t>
+  </si>
+  <si>
+    <t>jajaja</t>
+  </si>
+  <si>
+    <t>Equisde</t>
   </si>
 </sst>
 </file>
@@ -142,7 +166,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="71" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +218,150 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -576,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -747,6 +915,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="46" fillId="14" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="50" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="56" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="62" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="68" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1281,117 +1521,193 @@
         <v>10000.0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" t="n" s="51">
+    <row r="5" ht="28.5" customHeight="true">
+      <c r="A5" t="s" s="58">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="59">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s" s="60">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n" s="61">
+        <v>500.0</v>
+      </c>
+      <c r="V5" t="s" s="62">
+        <v>34</v>
+      </c>
+      <c r="W5" t="s" s="63">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" customHeight="true">
+      <c r="A6" t="s" s="64">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s" s="66">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n" s="67">
+        <v>500.0</v>
+      </c>
+      <c r="V6" t="s" s="68">
+        <v>34</v>
+      </c>
+      <c r="W6" t="s" s="69">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" customHeight="true">
+      <c r="A7" t="s" s="70">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s" s="71">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s" s="72">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n" s="73">
+        <v>600.0</v>
+      </c>
+      <c r="V7" t="s" s="74">
+        <v>34</v>
+      </c>
+      <c r="W7" t="s" s="75">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" customHeight="true">
+      <c r="A8" t="s" s="76">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s" s="77">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s" s="78">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n" s="79">
+        <v>200.0</v>
+      </c>
+      <c r="V8" t="s" s="80">
+        <v>34</v>
+      </c>
+      <c r="W8" t="s" s="81">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" t="n" s="51">
         <f>SUM(I2:I4)</f>
         <v>10000.0</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" t="n" s="52">
+      <c r="J9" s="11"/>
+      <c r="K9" t="n" s="52">
         <f>SUM(K2:K4)</f>
         <v>20000.0</v>
       </c>
-      <c r="L5" s="11" t="n">
-        <f t="shared" ref="L5" si="2">J5+R5</f>
+      <c r="L9" s="11" t="n">
+        <f t="shared" ref="L9" si="2">J9+R9</f>
         <v>0.0</v>
       </c>
-      <c r="M5" t="n" s="53">
+      <c r="M9" t="n" s="53">
         <f>SUM(M2:M4)</f>
         <v>23200.0</v>
       </c>
-      <c r="N5" s="11" t="n">
-        <f t="shared" ref="N5" si="4">J5+R5+P5+35</f>
+      <c r="N9" s="11" t="n">
+        <f t="shared" ref="N9" si="4">J9+R9+P9+35</f>
         <v>40.0</v>
       </c>
-      <c r="O5" t="n" s="54">
+      <c r="O9" t="n" s="54">
         <f>SUM(O2:O4)</f>
         <v>120.03999999999999</v>
       </c>
-      <c r="P5" s="11" t="n">
-        <f t="shared" ref="P5" si="6">(L5*0.15)+5</f>
+      <c r="P9" s="11" t="n">
+        <f t="shared" ref="P9" si="6">(L9*0.15)+5</f>
         <v>5.0</v>
       </c>
-      <c r="Q5" t="n" s="55">
+      <c r="Q9" t="n" s="55">
         <f>SUM(Q2:Q4)</f>
         <v>3485.0</v>
       </c>
-      <c r="R5" s="11" t="n">
-        <f t="shared" ref="R5" si="7">J5*0.16</f>
+      <c r="R9" s="11" t="n">
+        <f t="shared" ref="R9" si="7">J9*0.16</f>
         <v>0.0</v>
       </c>
-      <c r="S5" t="n" s="56">
+      <c r="S9" t="n" s="56">
         <f>SUM(S2:S4)</f>
         <v>3200.0</v>
       </c>
-      <c r="T5" s="11" t="n">
-        <f t="shared" ref="T5" si="9">L5-H5-R5</f>
+      <c r="T9" s="11" t="n">
+        <f t="shared" ref="T9" si="9">L9-H9-R9</f>
         <v>0.0</v>
       </c>
-      <c r="U5" t="n" s="57">
+      <c r="U9" t="n" s="57">
         <f>SUM(U2:U4)</f>
         <v>10000.0</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15" t="n">
-        <f>SUM(I5:I5)</f>
+    <row r="10" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="n">
+        <f>SUM(I9:I9)</f>
         <v>10000.0</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15" t="n">
-        <f>SUM(K5:K5)</f>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="n">
+        <f>SUM(K9:K9)</f>
         <v>20000.0</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15" t="n">
-        <f>SUM(M5:M5)</f>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15" t="n">
+        <f>SUM(M9:M9)</f>
         <v>23200.0</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15" t="n">
-        <f>SUM(O5:O5)</f>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15" t="n">
+        <f>SUM(O9:O9)</f>
         <v>120.03999999999999</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15" t="n">
-        <f>SUM(Q5:Q5)</f>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15" t="n">
+        <f>SUM(Q9:Q9)</f>
         <v>3485.0</v>
       </c>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15" t="n">
-        <f>SUM(S5:S5)</f>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15" t="n">
+        <f>SUM(S9:S9)</f>
         <v>3200.0</v>
       </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15" t="n">
-        <f>SUM(U5:U5)</f>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15" t="n">
+        <f>SUM(U9:U9)</f>
         <v>10000.0</v>
       </c>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
     </row>
-    <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBB9E66-C28A-494C-A042-813DCF78CC08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C20F99-FC2C-4B95-B8B7-7224E95CB0A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="4215" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -132,6 +132,24 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>bici verde</t>
+  </si>
+  <si>
+    <t>es verde</t>
+  </si>
+  <si>
+    <t>fedex</t>
+  </si>
+  <si>
+    <t>INVENTARIO PRINCIPAL</t>
+  </si>
+  <si>
+    <t>DFSD</t>
+  </si>
+  <si>
+    <t>FDSFSDFS</t>
   </si>
 </sst>
 </file>
@@ -140,9 +158,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="$#,#0.00"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="69" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,247 +214,379 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,27 +647,17 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="EEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="03DF7B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="03DF7B"/>
+        <fgColor rgb="FF03DF7B"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -554,29 +694,26 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -629,124 +766,190 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="31" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="36" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="39" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="40" fillId="14" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="41" fillId="14" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="14" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="43" fillId="14" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="44" fillId="14" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="45" fillId="14" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="46" fillId="14" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="36" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="47" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="48" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="49" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="50" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="51" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="52" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="53" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="54" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="55" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="56" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="57" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="58" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="59" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="60" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="61" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="62" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="63" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="64" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="65" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="66" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="67" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="68" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1092,19 +1295,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.73046875" collapsed="true"/>
-    <col min="3" max="21" customWidth="true" width="20.73046875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="36.796875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="24" max="26" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="1" max="2" width="40.73046875" customWidth="1" collapsed="1"/>
+    <col min="3" max="21" width="20.73046875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="36.796875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="22" customWidth="1" collapsed="1"/>
+    <col min="24" max="26" width="15.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -1176,219 +1379,294 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" ht="28.5" customHeight="true">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s" s="19">
+      <c r="B2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s" s="20">
+      <c r="C2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="n" s="21">
-        <v>600.0</v>
-      </c>
-      <c r="V2" t="s" s="22">
+      <c r="D2" s="21">
+        <v>600</v>
+      </c>
+      <c r="V2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="W2" t="s" s="23">
+      <c r="W2" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" ht="28.5" customHeight="true">
-      <c r="A3" t="s" s="24">
+    <row r="3" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s" s="25">
+      <c r="B3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s" s="26">
+      <c r="C3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="n" s="27">
-        <v>600.0</v>
-      </c>
-      <c r="V3" t="s" s="28">
+      <c r="D3" s="27">
+        <v>600</v>
+      </c>
+      <c r="V3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="W3" t="s" s="29">
+      <c r="W3" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" ht="28.5" customHeight="true">
-      <c r="A4" t="s" s="30">
+    <row r="4" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s" s="31">
+      <c r="B4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s" s="32">
+      <c r="C4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s" s="33">
+      <c r="D4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s" s="34">
+      <c r="E4" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="n" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="G4" t="n" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="H4" t="n" s="37">
-        <v>10000.0</v>
-      </c>
-      <c r="I4" t="n" s="38">
-        <v>10000.0</v>
-      </c>
-      <c r="J4" t="n" s="39">
-        <v>20000.0</v>
-      </c>
-      <c r="K4" t="n" s="40">
-        <v>20000.0</v>
-      </c>
-      <c r="L4" t="n" s="41">
-        <v>23200.0</v>
-      </c>
-      <c r="M4" t="n" s="42">
-        <v>23200.0</v>
-      </c>
-      <c r="N4" t="n" s="47">
+      <c r="F4" s="36">
+        <v>2</v>
+      </c>
+      <c r="G4" s="35">
+        <v>1</v>
+      </c>
+      <c r="H4" s="37">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="38">
+        <v>10000</v>
+      </c>
+      <c r="J4" s="39">
+        <v>20000</v>
+      </c>
+      <c r="K4" s="40">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="41">
+        <v>23200</v>
+      </c>
+      <c r="M4" s="42">
+        <v>23200</v>
+      </c>
+      <c r="N4" s="47">
         <v>120.03999999999999</v>
       </c>
-      <c r="O4" t="n" s="48">
+      <c r="O4" s="48">
         <v>120.03999999999999</v>
       </c>
-      <c r="P4" t="n" s="43">
-        <v>3485.0</v>
-      </c>
-      <c r="Q4" t="n" s="44">
-        <v>3485.0</v>
-      </c>
-      <c r="R4" t="n" s="45">
-        <v>3200.0</v>
-      </c>
-      <c r="S4" t="n" s="46">
-        <v>3200.0</v>
-      </c>
-      <c r="T4" t="n" s="49">
-        <v>10000.0</v>
-      </c>
-      <c r="U4" t="n" s="50">
-        <v>10000.0</v>
+      <c r="P4" s="43">
+        <v>3485</v>
+      </c>
+      <c r="Q4" s="44">
+        <v>3485</v>
+      </c>
+      <c r="R4" s="45">
+        <v>3200</v>
+      </c>
+      <c r="S4" s="46">
+        <v>3200</v>
+      </c>
+      <c r="T4" s="49">
+        <v>10000</v>
+      </c>
+      <c r="U4" s="50">
+        <v>10000</v>
+      </c>
+      <c r="V4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" t="n" s="51">
-        <f>SUM(I2:I4)</f>
-        <v>10000.0</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" t="n" s="52">
-        <f>SUM(K2:K4)</f>
-        <v>20000.0</v>
-      </c>
-      <c r="L5" s="11" t="n">
-        <f t="shared" ref="L5" si="2">J5+R5</f>
-        <v>0.0</v>
-      </c>
-      <c r="M5" t="n" s="53">
-        <f>SUM(M2:M4)</f>
-        <v>23200.0</v>
-      </c>
-      <c r="N5" s="11" t="n">
-        <f t="shared" ref="N5" si="4">J5+R5+P5+35</f>
-        <v>40.0</v>
-      </c>
-      <c r="O5" t="n" s="54">
-        <f>SUM(O2:O4)</f>
+    <row r="5" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="58">
+        <v>2</v>
+      </c>
+      <c r="G5" s="57">
+        <v>1</v>
+      </c>
+      <c r="H5" s="59">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="60">
+        <v>2000</v>
+      </c>
+      <c r="J5" s="61">
+        <v>4000</v>
+      </c>
+      <c r="K5" s="62">
+        <v>4000</v>
+      </c>
+      <c r="L5" s="63">
+        <v>4640</v>
+      </c>
+      <c r="M5" s="64">
+        <v>4640</v>
+      </c>
+      <c r="N5" s="69">
         <v>120.03999999999999</v>
       </c>
-      <c r="P5" s="11" t="n">
-        <f t="shared" ref="P5" si="6">(L5*0.15)+5</f>
-        <v>5.0</v>
-      </c>
-      <c r="Q5" t="n" s="55">
-        <f>SUM(Q2:Q4)</f>
-        <v>3485.0</v>
-      </c>
-      <c r="R5" s="11" t="n">
-        <f t="shared" ref="R5" si="7">J5*0.16</f>
-        <v>0.0</v>
-      </c>
-      <c r="S5" t="n" s="56">
-        <f>SUM(S2:S4)</f>
-        <v>3200.0</v>
-      </c>
-      <c r="T5" s="11" t="n">
-        <f t="shared" ref="T5" si="9">L5-H5-R5</f>
-        <v>0.0</v>
-      </c>
-      <c r="U5" t="n" s="57">
-        <f>SUM(U2:U4)</f>
-        <v>10000.0</v>
-      </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="O5" s="70">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="P5" s="65">
+        <v>701</v>
+      </c>
+      <c r="Q5" s="66">
+        <v>701</v>
+      </c>
+      <c r="R5" s="67">
+        <v>640</v>
+      </c>
+      <c r="S5" s="68">
+        <v>640</v>
+      </c>
+      <c r="T5" s="71">
+        <v>2000</v>
+      </c>
+      <c r="U5" s="72">
+        <v>2000</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="56" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15" t="n">
-        <f>SUM(I5:I5)</f>
-        <v>10000.0</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15" t="n">
-        <f>SUM(K5:K5)</f>
-        <v>20000.0</v>
-      </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15" t="n">
-        <f>SUM(M5:M5)</f>
-        <v>23200.0</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15" t="n">
-        <f>SUM(O5:O5)</f>
-        <v>120.03999999999999</v>
-      </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15" t="n">
-        <f>SUM(Q5:Q5)</f>
-        <v>3485.0</v>
-      </c>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15" t="n">
-        <f>SUM(S5:S5)</f>
-        <v>3200.0</v>
-      </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15" t="n">
-        <f>SUM(U5:U5)</f>
-        <v>10000.0</v>
-      </c>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
+    <row r="6" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="8"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="73">
+        <f>SUM(I2:I5)</f>
+        <v>12000</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="74">
+        <f>SUM(K2:K5)</f>
+        <v>24000</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" ref="L6" si="0">J6+R6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="75">
+        <f>SUM(M2:M5)</f>
+        <v>27840</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" ref="N6" si="1">J6+R6+P6+35</f>
+        <v>40</v>
+      </c>
+      <c r="O6" s="76">
+        <f>SUM(O2:O5)</f>
+        <v>240.07999999999998</v>
+      </c>
+      <c r="P6" s="11">
+        <f t="shared" ref="P6" si="2">(L6*0.15)+5</f>
+        <v>5</v>
+      </c>
+      <c r="Q6" s="77">
+        <f>SUM(Q2:Q5)</f>
+        <v>4186</v>
+      </c>
+      <c r="R6" s="11">
+        <f t="shared" ref="R6" si="3">J6*0.16</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="78">
+        <f>SUM(S2:S5)</f>
+        <v>3840</v>
+      </c>
+      <c r="T6" s="11">
+        <f t="shared" ref="T6" si="4">L6-H6-R6</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="79">
+        <f>SUM(U2:U5)</f>
+        <v>12000</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15">
+        <f>SUM(I6:I6)</f>
+        <v>12000</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15">
+        <f>SUM(K6:K6)</f>
+        <v>24000</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15">
+        <f>SUM(M6:M6)</f>
+        <v>27840</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15">
+        <f>SUM(O6:O6)</f>
+        <v>240.07999999999998</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15">
+        <f>SUM(Q6:Q6)</f>
+        <v>4186</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15">
+        <f>SUM(S6:S6)</f>
+        <v>3840</v>
+      </c>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15">
+        <f>SUM(U6:U6)</f>
+        <v>12000</v>
+      </c>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+    </row>
     <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="36">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>DE ESTRELLA</t>
+  </si>
+  <si>
+    <t>Sillas</t>
+  </si>
+  <si>
+    <t>Sillas Verdes</t>
+  </si>
+  <si>
+    <t>MOBILIARIO</t>
+  </si>
+  <si>
+    <t>FEDEX</t>
   </si>
 </sst>
 </file>
@@ -139,7 +151,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="81" x14ac:knownFonts="1">
+  <fonts count="106" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +196,156 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -754,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1012,6 +1174,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="103" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1357,7 +1594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W60"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" workbookViewId="0">
       <selection activeCell="V6" sqref="V6"/>
@@ -1639,7 +1876,7 @@
     <row r="12" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="16" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1684,7 +1921,6 @@
     <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="39">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>FEDEX</t>
+  </si>
+  <si>
+    <t>HPA</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>10  agosto 20</t>
   </si>
 </sst>
 </file>
@@ -151,7 +160,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="106" x14ac:knownFonts="1">
+  <fonts count="132" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,6 +785,162 @@
     <font>
       <name val="Calibri"/>
       <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -916,7 +1081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1249,6 +1414,84 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="105" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="129" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1820,53 +2063,123 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="e">
+    <row r="4" ht="28.5" customHeight="true">
+      <c r="A4" t="s" s="112">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s" s="134">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s" s="114">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s" s="115">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s" s="116">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s" s="117">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s" s="118">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s" s="119">
+        <v>25</v>
+      </c>
+      <c r="I4" t="n" s="135">
+        <v>123.0</v>
+      </c>
+      <c r="J4" t="s" s="121">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s" s="122">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s" s="123">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s" s="124">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s" s="125">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s" s="126">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s" s="127">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s" s="128">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s" s="129">
+        <v>25</v>
+      </c>
+      <c r="S4" t="s" s="130">
+        <v>25</v>
+      </c>
+      <c r="T4" t="s" s="131">
+        <v>25</v>
+      </c>
+      <c r="U4" t="s" s="132">
+        <v>25</v>
+      </c>
+      <c r="V4" t="s" s="136">
+        <v>26</v>
+      </c>
+      <c r="W4" t="s" s="137">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="e">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="e">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10" t="e">
+      <c r="N5" s="10"/>
+      <c r="O5" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10" t="e">
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10" t="e">
+      <c r="R5" s="10"/>
+      <c r="S5" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10" t="e">
+      <c r="T5" s="10"/>
+      <c r="U5" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
     </row>
-    <row r="5" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="67">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -150,6 +150,90 @@
   </si>
   <si>
     <t>10  agosto 20</t>
+  </si>
+  <si>
+    <t>Servicio de pintura</t>
+  </si>
+  <si>
+    <t>Roja</t>
+  </si>
+  <si>
+    <t>19  agosto 20</t>
+  </si>
+  <si>
+    <t>EGRESO</t>
+  </si>
+  <si>
+    <t>Fedex</t>
+  </si>
+  <si>
+    <t>Pinturita</t>
+  </si>
+  <si>
+    <t>JEJE</t>
+  </si>
+  <si>
+    <t>PINTURA CHIDA</t>
+  </si>
+  <si>
+    <t>ROJA</t>
+  </si>
+  <si>
+    <t>EQUIS</t>
+  </si>
+  <si>
+    <t>EWQWQ</t>
+  </si>
+  <si>
+    <t>EQUIPO DE TALLER</t>
+  </si>
+  <si>
+    <t>Martillo</t>
+  </si>
+  <si>
+    <t>Chido</t>
+  </si>
+  <si>
+    <t>FED EX</t>
+  </si>
+  <si>
+    <t>Martillo chidori</t>
+  </si>
+  <si>
+    <t>CHido</t>
+  </si>
+  <si>
+    <t>Estafeta</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Sjaskaj</t>
+  </si>
+  <si>
+    <t>kasjsakj</t>
+  </si>
+  <si>
+    <t>asjaksaj</t>
+  </si>
+  <si>
+    <t>skajsakjs</t>
+  </si>
+  <si>
+    <t>asajska</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>EQUIPO DE LIMPIEZA</t>
+  </si>
+  <si>
+    <t>Martillo Verde</t>
+  </si>
+  <si>
+    <t>es verde</t>
   </si>
 </sst>
 </file>
@@ -160,7 +244,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="132" x14ac:knownFonts="1">
+  <fonts count="490" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,6 +869,2154 @@
     <font>
       <name val="Calibri"/>
       <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -1081,7 +3313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="496">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1492,6 +3724,1080 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="131" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="155" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="181" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="207" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="233" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="259" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="285" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="311" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="337" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="363" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="389" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="461" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="487" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1837,7 +5143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" workbookViewId="0">
       <selection activeCell="V6" sqref="V6"/>
@@ -1845,9 +5151,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.73046875" collapsed="true"/>
-    <col min="3" max="21" customWidth="true" width="20.73046875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="36.796875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
     <col min="23" max="23" customWidth="true" width="22.0" collapsed="true"/>
     <col min="24" max="26" customWidth="true" width="15.73046875" collapsed="true"/>
   </cols>
@@ -2134,65 +5459,899 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="e">
+    <row r="5" ht="28.5" customHeight="true">
+      <c r="A5" t="s" s="138">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="160">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s" s="140">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s" s="141">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s" s="142">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s" s="143">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s" s="144">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s" s="145">
+        <v>25</v>
+      </c>
+      <c r="I5" t="n" s="161">
+        <v>500.0</v>
+      </c>
+      <c r="J5" t="s" s="147">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s" s="148">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s" s="149">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s" s="150">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s" s="151">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s" s="152">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s" s="153">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="s" s="154">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s" s="155">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s" s="156">
+        <v>25</v>
+      </c>
+      <c r="T5" t="s" s="157">
+        <v>25</v>
+      </c>
+      <c r="U5" t="s" s="158">
+        <v>25</v>
+      </c>
+      <c r="V5" t="s" s="162">
+        <v>42</v>
+      </c>
+      <c r="W5" t="s" s="163">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" customHeight="true">
+      <c r="A6" t="s" s="216">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s" s="238">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s" s="218">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s" s="219">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s" s="220">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s" s="221">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s" s="222">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s" s="223">
+        <v>25</v>
+      </c>
+      <c r="I6" t="n" s="239">
+        <v>900.0</v>
+      </c>
+      <c r="J6" t="s" s="225">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s" s="226">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s" s="227">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s" s="228">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s" s="229">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s" s="230">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s" s="231">
+        <v>25</v>
+      </c>
+      <c r="Q6" t="s" s="232">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s" s="233">
+        <v>25</v>
+      </c>
+      <c r="S6" t="s" s="234">
+        <v>25</v>
+      </c>
+      <c r="T6" t="s" s="235">
+        <v>25</v>
+      </c>
+      <c r="U6" t="s" s="236">
+        <v>25</v>
+      </c>
+      <c r="V6" t="s" s="240">
+        <v>50</v>
+      </c>
+      <c r="W6" t="s" s="241">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" customHeight="true">
+      <c r="A7" t="s" s="242">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s" s="264">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s" s="244">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s" s="245">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s" s="246">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s" s="247">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s" s="248">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s" s="249">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n" s="265">
+        <v>900.0</v>
+      </c>
+      <c r="J7" t="s" s="251">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s" s="252">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s" s="253">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s" s="254">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s" s="255">
+        <v>25</v>
+      </c>
+      <c r="O7" t="s" s="256">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s" s="257">
+        <v>25</v>
+      </c>
+      <c r="Q7" t="s" s="258">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s" s="259">
+        <v>25</v>
+      </c>
+      <c r="S7" t="s" s="260">
+        <v>25</v>
+      </c>
+      <c r="T7" t="s" s="261">
+        <v>25</v>
+      </c>
+      <c r="U7" t="s" s="262">
+        <v>25</v>
+      </c>
+      <c r="V7" t="s" s="266">
+        <v>50</v>
+      </c>
+      <c r="W7" t="s" s="267">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" customHeight="true">
+      <c r="A8" t="s" s="268">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s" s="290">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s" s="270">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s" s="271">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s" s="272">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s" s="273">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s" s="274">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s" s="275">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n" s="291">
+        <v>600.0</v>
+      </c>
+      <c r="J8" t="s" s="277">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s" s="278">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s" s="279">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s" s="280">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s" s="281">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s" s="282">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s" s="283">
+        <v>25</v>
+      </c>
+      <c r="Q8" t="s" s="284">
+        <v>25</v>
+      </c>
+      <c r="R8" t="s" s="285">
+        <v>25</v>
+      </c>
+      <c r="S8" t="s" s="286">
+        <v>25</v>
+      </c>
+      <c r="T8" t="s" s="287">
+        <v>25</v>
+      </c>
+      <c r="U8" t="s" s="288">
+        <v>25</v>
+      </c>
+      <c r="V8" t="s" s="292">
+        <v>26</v>
+      </c>
+      <c r="W8" t="s" s="293">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" customHeight="true">
+      <c r="A9" t="s" s="294">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s" s="316">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s" s="296">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s" s="297">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s" s="298">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s" s="299">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s" s="300">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s" s="301">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n" s="317">
+        <v>900.0</v>
+      </c>
+      <c r="J9" t="s" s="303">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s" s="304">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s" s="305">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s" s="306">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s" s="307">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s" s="308">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="Q9" t="s" s="310">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s" s="311">
+        <v>25</v>
+      </c>
+      <c r="S9" t="s" s="312">
+        <v>25</v>
+      </c>
+      <c r="T9" t="s" s="313">
+        <v>25</v>
+      </c>
+      <c r="U9" t="s" s="314">
+        <v>25</v>
+      </c>
+      <c r="V9" t="s" s="318">
+        <v>26</v>
+      </c>
+      <c r="W9" t="s" s="319">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" customHeight="true">
+      <c r="A10" t="s" s="320">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s" s="342">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s" s="322">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s" s="323">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s" s="324">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s" s="325">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s" s="326">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s" s="327">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n" s="343">
+        <v>900.0</v>
+      </c>
+      <c r="J10" t="s" s="329">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s" s="330">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s" s="331">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s" s="332">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s" s="333">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="P10" t="s" s="335">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="s" s="336">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s" s="337">
+        <v>25</v>
+      </c>
+      <c r="S10" t="s" s="338">
+        <v>25</v>
+      </c>
+      <c r="T10" t="s" s="339">
+        <v>25</v>
+      </c>
+      <c r="U10" t="s" s="340">
+        <v>25</v>
+      </c>
+      <c r="V10" t="s" s="344">
+        <v>26</v>
+      </c>
+      <c r="W10" t="s" s="345">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" customHeight="true">
+      <c r="A11" t="s" s="346">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s" s="368">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s" s="348">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s" s="349">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s" s="350">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s" s="351">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s" s="352">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s" s="353">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n" s="369">
+        <v>500.0</v>
+      </c>
+      <c r="J11" t="s" s="355">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s" s="356">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s" s="357">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s" s="358">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s" s="359">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="360">
+        <v>25</v>
+      </c>
+      <c r="P11" t="s" s="361">
+        <v>25</v>
+      </c>
+      <c r="Q11" t="s" s="362">
+        <v>25</v>
+      </c>
+      <c r="R11" t="s" s="363">
+        <v>25</v>
+      </c>
+      <c r="S11" t="s" s="364">
+        <v>25</v>
+      </c>
+      <c r="T11" t="s" s="365">
+        <v>25</v>
+      </c>
+      <c r="U11" t="s" s="366">
+        <v>25</v>
+      </c>
+      <c r="V11" t="s" s="370">
+        <v>50</v>
+      </c>
+      <c r="W11" t="s" s="371">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" customHeight="true">
+      <c r="A12" t="s" s="372">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s" s="394">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s" s="374">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s" s="375">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s" s="376">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s" s="377">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s" s="378">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s" s="379">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n" s="395">
+        <v>200.0</v>
+      </c>
+      <c r="J12" t="s" s="381">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s" s="382">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s" s="383">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s" s="384">
+        <v>25</v>
+      </c>
+      <c r="N12" t="s" s="385">
+        <v>25</v>
+      </c>
+      <c r="O12" t="s" s="386">
+        <v>25</v>
+      </c>
+      <c r="P12" t="s" s="387">
+        <v>25</v>
+      </c>
+      <c r="Q12" t="s" s="388">
+        <v>25</v>
+      </c>
+      <c r="R12" t="s" s="389">
+        <v>25</v>
+      </c>
+      <c r="S12" t="s" s="390">
+        <v>25</v>
+      </c>
+      <c r="T12" t="s" s="391">
+        <v>25</v>
+      </c>
+      <c r="U12" t="s" s="392">
+        <v>25</v>
+      </c>
+      <c r="V12" t="s" s="396">
+        <v>34</v>
+      </c>
+      <c r="W12" t="s" s="397">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" customHeight="true">
+      <c r="A13" t="s" s="398">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s" s="420">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s" s="400">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s" s="401">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s" s="402">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s" s="403">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s" s="404">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s" s="405">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s" s="406">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s" s="407">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s" s="408">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s" s="409">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s" s="410">
+        <v>25</v>
+      </c>
+      <c r="N13" t="s" s="411">
+        <v>25</v>
+      </c>
+      <c r="O13" t="s" s="412">
+        <v>25</v>
+      </c>
+      <c r="P13" t="s" s="413">
+        <v>25</v>
+      </c>
+      <c r="Q13" t="s" s="414">
+        <v>25</v>
+      </c>
+      <c r="R13" t="s" s="415">
+        <v>25</v>
+      </c>
+      <c r="S13" t="s" s="416">
+        <v>25</v>
+      </c>
+      <c r="T13" t="s" s="417">
+        <v>25</v>
+      </c>
+      <c r="U13" t="s" s="418">
+        <v>25</v>
+      </c>
+      <c r="V13" t="s" s="419">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" customHeight="true">
+      <c r="A14" t="s" s="421">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s" s="443">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s" s="423">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s" s="424">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s" s="425">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s" s="426">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s" s="427">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s" s="428">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s" s="429">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s" s="430">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s" s="431">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s" s="432">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s" s="433">
+        <v>25</v>
+      </c>
+      <c r="N14" t="s" s="434">
+        <v>25</v>
+      </c>
+      <c r="O14" t="s" s="435">
+        <v>25</v>
+      </c>
+      <c r="P14" t="s" s="436">
+        <v>25</v>
+      </c>
+      <c r="Q14" t="s" s="437">
+        <v>25</v>
+      </c>
+      <c r="R14" t="s" s="438">
+        <v>25</v>
+      </c>
+      <c r="S14" t="s" s="439">
+        <v>25</v>
+      </c>
+      <c r="T14" t="s" s="440">
+        <v>25</v>
+      </c>
+      <c r="U14" t="s" s="441">
+        <v>25</v>
+      </c>
+      <c r="V14" t="s" s="442">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" customHeight="true">
+      <c r="A15" t="s" s="444">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s" s="466">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s" s="446">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s" s="447">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s" s="448">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s" s="449">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s" s="450">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s" s="451">
+        <v>25</v>
+      </c>
+      <c r="I15" t="n" s="467">
+        <v>900.0</v>
+      </c>
+      <c r="J15" t="s" s="453">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s" s="454">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s" s="455">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s" s="456">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s" s="457">
+        <v>25</v>
+      </c>
+      <c r="O15" t="s" s="458">
+        <v>25</v>
+      </c>
+      <c r="P15" t="s" s="459">
+        <v>25</v>
+      </c>
+      <c r="Q15" t="s" s="460">
+        <v>25</v>
+      </c>
+      <c r="R15" t="s" s="461">
+        <v>25</v>
+      </c>
+      <c r="S15" t="s" s="462">
+        <v>25</v>
+      </c>
+      <c r="T15" t="s" s="463">
+        <v>25</v>
+      </c>
+      <c r="U15" t="s" s="464">
+        <v>25</v>
+      </c>
+      <c r="V15" t="s" s="468">
+        <v>64</v>
+      </c>
+      <c r="W15" t="s" s="469">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" customHeight="true">
+      <c r="A16" t="s" s="470">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s" s="492">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s" s="472">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s" s="473">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s" s="474">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s" s="475">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s" s="476">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s" s="477">
+        <v>25</v>
+      </c>
+      <c r="I16" t="n" s="493">
+        <v>600.0</v>
+      </c>
+      <c r="J16" t="s" s="479">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s" s="480">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s" s="481">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s" s="482">
+        <v>25</v>
+      </c>
+      <c r="N16" t="s" s="483">
+        <v>25</v>
+      </c>
+      <c r="O16" t="s" s="484">
+        <v>25</v>
+      </c>
+      <c r="P16" t="s" s="485">
+        <v>25</v>
+      </c>
+      <c r="Q16" t="s" s="486">
+        <v>25</v>
+      </c>
+      <c r="R16" t="s" s="487">
+        <v>25</v>
+      </c>
+      <c r="S16" t="s" s="488">
+        <v>25</v>
+      </c>
+      <c r="T16" t="s" s="489">
+        <v>25</v>
+      </c>
+      <c r="U16" t="s" s="490">
+        <v>25</v>
+      </c>
+      <c r="V16" t="s" s="494">
+        <v>26</v>
+      </c>
+      <c r="W16" t="s" s="495">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="e">
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10" t="e">
+      <c r="L17" s="10"/>
+      <c r="M17" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10" t="e">
+      <c r="N17" s="10"/>
+      <c r="O17" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10" t="e">
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10" t="e">
+      <c r="R17" s="10"/>
+      <c r="S17" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10" t="e">
+      <c r="T17" s="10"/>
+      <c r="U17" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
     </row>
-    <row r="6" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2232,8 +6391,6 @@
     <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="43">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>10  agosto 20</t>
+  </si>
+  <si>
+    <t>pendejada</t>
+  </si>
+  <si>
+    <t>sljasdksa</t>
+  </si>
+  <si>
+    <t>19  agosto 20</t>
+  </si>
+  <si>
+    <t>castores</t>
   </si>
 </sst>
 </file>
@@ -160,7 +172,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="132" x14ac:knownFonts="1">
+  <fonts count="184" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,6 +797,318 @@
     <font>
       <name val="Calibri"/>
       <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -1081,7 +1405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1492,6 +1816,162 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="131" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="155" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="181" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1845,9 +2325,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.73046875" collapsed="true"/>
-    <col min="3" max="21" customWidth="true" width="20.73046875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="36.796875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
     <col min="23" max="23" customWidth="true" width="22.0" collapsed="true"/>
     <col min="24" max="26" customWidth="true" width="15.73046875" collapsed="true"/>
   </cols>
@@ -2134,54 +2633,194 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="e">
+    <row r="5" ht="28.5" customHeight="true">
+      <c r="A5" t="s" s="138">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="160">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s" s="140">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s" s="141">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s" s="142">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s" s="143">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s" s="144">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s" s="145">
+        <v>25</v>
+      </c>
+      <c r="I5" t="n" s="161">
+        <v>10.0</v>
+      </c>
+      <c r="J5" t="s" s="147">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s" s="148">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s" s="149">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s" s="150">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s" s="151">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s" s="152">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s" s="153">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="s" s="154">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s" s="155">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s" s="156">
+        <v>25</v>
+      </c>
+      <c r="T5" t="s" s="157">
+        <v>25</v>
+      </c>
+      <c r="U5" t="s" s="158">
+        <v>25</v>
+      </c>
+      <c r="V5" t="s" s="162">
+        <v>26</v>
+      </c>
+      <c r="W5" t="s" s="163">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" customHeight="true">
+      <c r="A6" t="s" s="164">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="186">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s" s="166">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s" s="167">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s" s="168">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s" s="169">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s" s="170">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s" s="171">
+        <v>25</v>
+      </c>
+      <c r="I6" t="n" s="187">
+        <v>10.0</v>
+      </c>
+      <c r="J6" t="s" s="173">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s" s="174">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s" s="175">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s" s="176">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s" s="177">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s" s="178">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s" s="179">
+        <v>25</v>
+      </c>
+      <c r="Q6" t="s" s="180">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s" s="181">
+        <v>25</v>
+      </c>
+      <c r="S6" t="s" s="182">
+        <v>25</v>
+      </c>
+      <c r="T6" t="s" s="183">
+        <v>25</v>
+      </c>
+      <c r="U6" t="s" s="184">
+        <v>25</v>
+      </c>
+      <c r="V6" t="s" s="188">
+        <v>26</v>
+      </c>
+      <c r="W6" t="s" s="189">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="e">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10" t="e">
+      <c r="L7" s="10"/>
+      <c r="M7" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10" t="e">
+      <c r="N7" s="10"/>
+      <c r="O7" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10" t="e">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10" t="e">
+      <c r="R7" s="10"/>
+      <c r="S7" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10" t="e">
+      <c r="T7" s="10"/>
+      <c r="U7" s="10" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
     </row>
-    <row r="6" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="52">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -162,6 +162,33 @@
   </si>
   <si>
     <t>castores</t>
+  </si>
+  <si>
+    <t>bici fea</t>
+  </si>
+  <si>
+    <t>sddas</t>
+  </si>
+  <si>
+    <t>20  agosto 20</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>INVENTARIO PRINCIPAL</t>
+  </si>
+  <si>
+    <t>dsdf</t>
+  </si>
+  <si>
+    <t>fsd</t>
+  </si>
+  <si>
+    <t>er</t>
   </si>
 </sst>
 </file>
@@ -172,7 +199,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="184" x14ac:knownFonts="1">
+  <fonts count="280" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,8 +1313,584 @@
       <color indexed="8"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1343,6 +1946,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="03DF7B"/>
       </patternFill>
     </fill>
   </fills>
@@ -1405,7 +2018,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1972,6 +2585,294 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="183" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="193" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="195" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="196" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="197" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="198" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="199" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="200" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="201" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="202" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="203" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="204" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="205" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="206" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="207" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="208" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="209" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="210" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="211" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="212" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="213" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="214" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="215" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="225" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="227" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="228" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="229" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="230" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="231" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="232" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="233" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="234" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="235" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="236" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="237" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="238" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="239" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="240" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="241" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="242" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="243" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="244" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="245" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="246" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="247" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="257" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="259" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="260" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="261" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="262" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="263" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="264" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="265" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="266" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="267" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="268" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="269" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="270" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="271" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="272" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="273" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="274" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="275" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="276" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="277" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="278" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="279" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2775,55 +3676,265 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
+    <row r="7" ht="28.5" customHeight="true">
+      <c r="A7" t="s" s="190">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s" s="195">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s" s="192">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s" s="193">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s" s="194">
+        <v>47</v>
+      </c>
+      <c r="F7" t="n" s="200">
+        <v>2.0</v>
+      </c>
+      <c r="G7" t="n" s="198">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n" s="201">
+        <v>1.0</v>
+      </c>
+      <c r="I7" t="n" s="202">
+        <v>1.0</v>
+      </c>
+      <c r="J7" t="n" s="203">
+        <v>2.0</v>
+      </c>
+      <c r="K7" t="n" s="204">
+        <v>2.0</v>
+      </c>
+      <c r="L7" t="n" s="205">
+        <v>2.32</v>
+      </c>
+      <c r="M7" t="n" s="206">
+        <v>2.32</v>
+      </c>
+      <c r="N7" t="n" s="211">
+        <v>6710.0</v>
+      </c>
+      <c r="O7" t="n" s="212">
+        <v>6710.0</v>
+      </c>
+      <c r="P7" t="n" s="207">
+        <v>5.348</v>
+      </c>
+      <c r="Q7" t="n" s="208">
+        <v>5.348</v>
+      </c>
+      <c r="R7" t="n" s="209">
+        <v>0.32</v>
+      </c>
+      <c r="S7" t="n" s="210">
+        <v>0.32</v>
+      </c>
+      <c r="T7" t="n" s="213">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="U7" t="n" s="214">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="V7" t="s" s="196">
+        <v>48</v>
+      </c>
+      <c r="W7" t="s" s="197">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" ht="28.5" customHeight="true">
+      <c r="A8" t="s" s="222">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s" s="227">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s" s="224">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s" s="225">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s" s="226">
+        <v>47</v>
+      </c>
+      <c r="F8" t="n" s="232">
+        <v>2.0</v>
+      </c>
+      <c r="G8" t="n" s="230">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="n" s="233">
+        <v>1.0</v>
+      </c>
+      <c r="I8" t="n" s="234">
+        <v>1.0</v>
+      </c>
+      <c r="J8" t="n" s="235">
+        <v>2.0</v>
+      </c>
+      <c r="K8" t="n" s="236">
+        <v>2.0</v>
+      </c>
+      <c r="L8" t="n" s="237">
+        <v>2.32</v>
+      </c>
+      <c r="M8" t="n" s="238">
+        <v>2.32</v>
+      </c>
+      <c r="N8" t="n" s="243">
+        <v>6710.0</v>
+      </c>
+      <c r="O8" t="n" s="244">
+        <v>6710.0</v>
+      </c>
+      <c r="P8" t="n" s="239">
+        <v>5.348</v>
+      </c>
+      <c r="Q8" t="n" s="240">
+        <v>5.348</v>
+      </c>
+      <c r="R8" t="n" s="241">
+        <v>0.32</v>
+      </c>
+      <c r="S8" t="n" s="242">
+        <v>0.32</v>
+      </c>
+      <c r="T8" t="n" s="245">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="U8" t="n" s="246">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="V8" t="s" s="228">
+        <v>48</v>
+      </c>
+      <c r="W8" t="s" s="229">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" customHeight="true">
+      <c r="A9" t="s" s="254">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s" s="259">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s" s="256">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s" s="257">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s" s="258">
+        <v>47</v>
+      </c>
+      <c r="F9" t="n" s="264">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G9" t="n" s="262">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="n" s="265">
+        <v>3.0</v>
+      </c>
+      <c r="I9" t="n" s="266">
+        <v>3.0</v>
+      </c>
+      <c r="J9" t="n" s="267">
+        <v>5.0</v>
+      </c>
+      <c r="K9" t="n" s="268">
+        <v>5.0</v>
+      </c>
+      <c r="L9" t="n" s="269">
+        <v>5.8</v>
+      </c>
+      <c r="M9" t="n" s="270">
+        <v>5.8</v>
+      </c>
+      <c r="N9" t="n" s="275">
+        <v>6710.0</v>
+      </c>
+      <c r="O9" t="n" s="276">
+        <v>6710.0</v>
+      </c>
+      <c r="P9" t="n" s="271">
+        <v>5.87</v>
+      </c>
+      <c r="Q9" t="n" s="272">
+        <v>5.87</v>
+      </c>
+      <c r="R9" t="n" s="273">
+        <v>0.8</v>
+      </c>
+      <c r="S9" t="n" s="274">
+        <v>0.8</v>
+      </c>
+      <c r="T9" t="n" s="277">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="U9" t="n" s="278">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="V9" t="s" s="260">
+        <v>48</v>
+      </c>
+      <c r="W9" t="s" s="261">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" t="n" s="279">
+        <f>SUM(I2:I9)</f>
+        <v>248.0</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" t="n" s="280">
+        <f>SUM(K2:K9)</f>
+        <v>9.0</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" t="n" s="281">
+        <f>SUM(M2:M9)</f>
+        <v>10.44</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" t="n" s="282">
+        <f>SUM(O2:O9)</f>
+        <v>20130.0</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" t="n" s="283">
+        <f>SUM(Q2:Q9)</f>
+        <v>16.566</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" t="n" s="284">
+        <f>SUM(S2:S9)</f>
+        <v>1.44</v>
+      </c>
+      <c r="T10" s="10"/>
+      <c r="U10" t="n" s="285">
+        <f>SUM(U2:U9)</f>
+        <v>3.999999999999999</v>
+      </c>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+    </row>
     <row r="11" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/JavaApplication19/src/excel/comprasT.xlsx
+++ b/JavaApplication19/src/excel/comprasT.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="55">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>er</t>
+  </si>
+  <si>
+    <t>MARTILLO LOCOCHON</t>
+  </si>
+  <si>
+    <t>SADASDS</t>
+  </si>
+  <si>
+    <t>21  agosto 20</t>
   </si>
 </sst>
 </file>
@@ -199,7 +208,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="280" x14ac:knownFonts="1">
+  <fonts count="306" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1889,8 +1898,164 @@
       <color indexed="8"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1958,6 +2123,16 @@
         <fgColor rgb="03DF7B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="BFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="BFBFBF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -2018,7 +2193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2873,6 +3048,84 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="279" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="10" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="303" fillId="10" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="14" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="14" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3889,53 +4142,123 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" t="n" s="279">
+    <row r="10" ht="28.5" customHeight="true">
+      <c r="A10" t="s" s="286">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s" s="308">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s" s="288">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s" s="289">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s" s="290">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s" s="291">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s" s="292">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s" s="293">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n" s="309">
+        <v>12.0</v>
+      </c>
+      <c r="J10" t="s" s="295">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s" s="296">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s" s="297">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s" s="298">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s" s="299">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s" s="300">
+        <v>25</v>
+      </c>
+      <c r="P10" t="s" s="301">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="s" s="302">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s" s="303">
+        <v>25</v>
+      </c>
+      <c r="S10" t="s" s="304">
+        <v>25</v>
+      </c>
+      <c r="T10" t="s" s="305">
+        <v>25</v>
+      </c>
+      <c r="U10" t="s" s="306">
+        <v>25</v>
+      </c>
+      <c r="V10" t="s" s="310">
+        <v>26</v>
+      </c>
+      <c r="W10" t="s" s="311">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" t="n" s="279">
         <f>SUM(I2:I9)</f>
         <v>248.0</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" t="n" s="280">
+      <c r="J11" s="10"/>
+      <c r="K11" t="n" s="280">
         <f>SUM(K2:K9)</f>
         <v>9.0</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" t="n" s="281">
+      <c r="L11" s="10"/>
+      <c r="M11" t="n" s="281">
         <f>SUM(M2:M9)</f>
         <v>10.44</v>
       </c>
-      <c r="N10" s="10"/>
-      <c r="O10" t="n" s="282">
+      <c r="N11" s="10"/>
+      <c r="O11" t="n" s="282">
         <f>SUM(O2:O9)</f>
         <v>20130.0</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" t="n" s="283">
+      <c r="P11" s="10"/>
+      <c r="Q11" t="n" s="283">
         <f>SUM(Q2:Q9)</f>
         <v>16.566</v>
       </c>
-      <c r="R10" s="10"/>
-      <c r="S10" t="n" s="284">
+      <c r="R11" s="10"/>
+      <c r="S11" t="n" s="284">
         <f>SUM(S2:S9)</f>
         <v>1.44</v>
       </c>
-      <c r="T10" s="10"/>
-      <c r="U10" t="n" s="285">
+      <c r="T11" s="10"/>
+      <c r="U11" t="n" s="285">
         <f>SUM(U2:U9)</f>
         <v>3.999999999999999</v>
       </c>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
     </row>
-    <row r="11" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
